--- a/AWX42E_0402/AWX42E_2gyak.xlsx
+++ b/AWX42E_0402/AWX42E_2gyak.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BVGit\AWX42EInfAlk\AWX42E_0402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DADA55-C803-42E0-AAC0-7B854B026CC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328FDA99-554A-4CE3-8D2D-42EBF8E96442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{827481A0-11A2-4AB8-A598-9B9589F389F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Munka1!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Munka1!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Munka1!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Munka1!$C$3:$C$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Keresőfüggvények használata</t>
   </si>
@@ -362,14 +368,31 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,28 +404,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,6 +416,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -419,6 +431,1887 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Keresőfüggvény</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> használata</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irsz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Debrecen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Szolnok</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kecskemét</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Szentendre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hatvan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F20C-4202-889A-52052DEF1495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Keresőfüggvény használata</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Keresőfüggvény használata</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{04FB9118-B6EF-4421-83DA-510992B0D7AD}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0066"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FF99CC"/>
+    </a:solidFill>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105197</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190728</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EFB3C8-AA97-4923-A646-1825E7F028A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Diagram 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2127E287-0564-465F-A086-4A35D3510A21}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4621306" y="121024"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="hu-HU" sz="1100"/>
+                <a:t>Ez a diagram nem érhető el az Excel ezen verziójában.
+Ha szerkeszti ezt az alakzatot, vagy más formátumba menti a munkafüzetet, azzal végleg tönkreteszi a diagramot.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,99 +2613,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434BF8A0-F3AC-46AD-92C1-4BF6A5CA8D14}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>4000</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>5000</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>6000</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14">
+        <f>INDEX(C3:C7,MATCH(E5,B3:B7,0))</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>2000</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>3000</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -822,5 +2724,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>